--- a/biology/Botanique/Prenanthes/Prenanthes.xlsx
+++ b/biology/Botanique/Prenanthes/Prenanthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Prenanthes (francisé en Prénanthe) regroupe quelques espèces de plantes, pour la plupart indigènes en Amérique du Nord, notamment aux États-Unis, à l'exception de Prenanthes purpurea (Prénanthe pourpre), espèce européenne. Ces plantes appartiennent à la famille des Astéracées (ou Composées) et sont très proches des laitues (genre Lactuca). Les sources citent majoritairement que les espèces appartiennent à la sous-tribu des Hypochaeridinae mais certaines (The Taxonomicon par exemple) les placent dans celle des Lactucinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot grec prenanthes signifie fleurs penchées, évoquant les capitules de la plante, situés à l'extrémité d'assez longs pédicelles inclinés vers le bas. Aux États-Unis, la plupart des espèces sont appelées rattlesnakeroots, nom composé de root (racine) et rattlesnake (crotale). On estime en effet que les racines de la plante permettraient de soigner les morsures de serpents venimeux.
 Le genre regroupe des plantes à latex, aux capitules inclinés groupés en grappes ou en panicules (grappes de grappes). Les capitules sont petits, comportant peu de fleurons (cinq le plus souvent), ligulés et à cinq dents, de couleur allant du blanc au violet et au pourpre. Les tubes regroupant le style et les étamines sont protubérants, longuement saillants par rapport aux fleurs. Comme pour toutes les composées, les fruits sont des akènes.
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amérique du Nord
 Prenanthes alata (Hook.) D. Dietr.
